--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_12_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_12_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1332248.235919905</v>
+        <v>1328111.078669755</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283181</v>
+        <v>416855.1052283204</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -667,19 +667,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>297.8446950779471</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>30.94005184045457</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -819,7 +819,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -837,7 +837,7 @@
         <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -870,19 +870,19 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>164.8914808188865</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>107.6980585313751</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -901,7 +901,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -910,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>47.99787796633384</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -955,7 +955,7 @@
         <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>29.41462549474736</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1056,19 +1056,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>96.89514013214017</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>50.98074812542791</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1107,19 +1107,19 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1135,25 +1135,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>160.0245354818138</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>277.693852044119</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1293,22 +1293,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>38.56020443560018</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>50.98074812542836</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701319</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T12" t="n">
         <v>188.3046392154443</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1584,7 +1584,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>172.026033500079</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>185.6920487814938</v>
       </c>
     </row>
     <row r="14">
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444115</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T15" t="n">
         <v>188.3046392154443</v>
@@ -1773,13 +1773,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>99.97427419833861</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>99.97427419833009</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012171</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -2004,16 +2004,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,16 +2052,16 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>140.3829797864967</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2244,7 +2244,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>87.21471514852945</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2253,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>18.7084378797767</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272852</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -2487,16 +2487,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>56.04917322725559</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>120.83264851408</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2718,19 +2718,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>99.97427419833859</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2809,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2955,19 +2955,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>20.92847288552921</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3189,19 +3189,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>99.9742741983392</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3243,7 +3243,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>244.6418937426531</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3429,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>113.6427030833203</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,19 +3471,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>107.4021082756243</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>103.8784673763403</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3726,10 +3726,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>45.16086499484972</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3903,19 +3903,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3951,13 +3951,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>170.9457618790577</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>194.9085394018862</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -4152,10 +4152,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>172.026033500079</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>208.2585798692292</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,34 +4306,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1248.370234799863</v>
+        <v>1215.247820471428</v>
       </c>
       <c r="C2" t="n">
-        <v>1248.370234799863</v>
+        <v>1215.247820471428</v>
       </c>
       <c r="D2" t="n">
-        <v>1248.370234799863</v>
+        <v>1215.247820471428</v>
       </c>
       <c r="E2" t="n">
-        <v>1248.370234799863</v>
+        <v>829.4595678731839</v>
       </c>
       <c r="F2" t="n">
-        <v>837.3843300102556</v>
+        <v>418.4736630835764</v>
       </c>
       <c r="G2" t="n">
-        <v>421.6795797345445</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H2" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
         <v>795.7553530872915</v>
@@ -4351,31 +4351,31 @@
         <v>2360.886721764997</v>
       </c>
       <c r="Q2" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R2" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2531.086750783535</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2322.34110938936</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>2322.34110938936</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>1991.278222045789</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="W2" t="n">
-        <v>1638.509566775675</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="X2" t="n">
-        <v>1638.509566775675</v>
+        <v>1601.84766053555</v>
       </c>
       <c r="Y2" t="n">
-        <v>1248.370234799863</v>
+        <v>1601.84766053555</v>
       </c>
     </row>
     <row r="3">
@@ -4391,49 +4391,49 @@
         <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488047</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
         <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310613</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L3" t="n">
-        <v>932.4978103100999</v>
+        <v>801.944955774447</v>
       </c>
       <c r="M3" t="n">
-        <v>1295.75982926932</v>
+        <v>1165.206974733667</v>
       </c>
       <c r="N3" t="n">
-        <v>1683.044957866265</v>
+        <v>1552.492103330612</v>
       </c>
       <c r="O3" t="n">
-        <v>2175.50262973664</v>
+        <v>1884.562538506774</v>
       </c>
       <c r="P3" t="n">
-        <v>2422.685363568937</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676483</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S3" t="n">
         <v>2426.617474780096</v>
@@ -4442,7 +4442,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
@@ -4464,40 +4464,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>770.8338829770711</v>
+        <v>833.9149192343713</v>
       </c>
       <c r="C4" t="n">
-        <v>770.8338829770711</v>
+        <v>664.9787363064644</v>
       </c>
       <c r="D4" t="n">
-        <v>620.7172435647353</v>
+        <v>514.8620968941286</v>
       </c>
       <c r="E4" t="n">
-        <v>620.7172435647353</v>
+        <v>514.8620968941286</v>
       </c>
       <c r="F4" t="n">
-        <v>473.8272960668249</v>
+        <v>367.9721493962183</v>
       </c>
       <c r="G4" t="n">
-        <v>305.8408313751036</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386098</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
         <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
@@ -4518,22 +4518,22 @@
         <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>1636.446120074497</v>
+        <v>1413.467639269233</v>
       </c>
       <c r="U4" t="n">
-        <v>1469.889068742289</v>
+        <v>1124.349301773071</v>
       </c>
       <c r="V4" t="n">
-        <v>1469.889068742289</v>
+        <v>1124.349301773071</v>
       </c>
       <c r="W4" t="n">
-        <v>1180.471898705328</v>
+        <v>1124.349301773071</v>
       </c>
       <c r="X4" t="n">
-        <v>952.4823478073108</v>
+        <v>1015.563384064611</v>
       </c>
       <c r="Y4" t="n">
-        <v>952.4823478073108</v>
+        <v>1015.563384064611</v>
       </c>
     </row>
     <row r="5">
@@ -4543,40 +4543,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1181.996585635751</v>
+        <v>880.645441216167</v>
       </c>
       <c r="C5" t="n">
-        <v>1181.996585635751</v>
+        <v>880.645441216167</v>
       </c>
       <c r="D5" t="n">
-        <v>1181.996585635751</v>
+        <v>522.3797426094166</v>
       </c>
       <c r="E5" t="n">
-        <v>1181.996585635751</v>
+        <v>522.3797426094166</v>
       </c>
       <c r="F5" t="n">
-        <v>771.0106808461439</v>
+        <v>111.393837819809</v>
       </c>
       <c r="G5" t="n">
-        <v>355.3059305704328</v>
+        <v>99.72949158450193</v>
       </c>
       <c r="H5" t="n">
-        <v>51.24678656800311</v>
+        <v>99.72949158450193</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
         <v>1656.671415230817</v>
@@ -4594,25 +4594,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T5" t="n">
-        <v>2228.894479532451</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U5" t="n">
-        <v>1975.31341879663</v>
+        <v>1975.313418796629</v>
       </c>
       <c r="V5" t="n">
-        <v>1945.601675872643</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W5" t="n">
-        <v>1945.601675872643</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="X5" t="n">
-        <v>1572.135917611563</v>
+        <v>1270.784773191979</v>
       </c>
       <c r="Y5" t="n">
-        <v>1181.996585635751</v>
+        <v>880.645441216167</v>
       </c>
     </row>
     <row r="6">
@@ -4622,52 +4622,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>304.7087196946019</v>
+        <v>590.2049751143496</v>
       </c>
       <c r="L6" t="n">
-        <v>599.4122767260736</v>
+        <v>884.9085321458213</v>
       </c>
       <c r="M6" t="n">
-        <v>1233.591260505112</v>
+        <v>1248.170551105041</v>
       </c>
       <c r="N6" t="n">
-        <v>1867.770244284151</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O6" t="n">
-        <v>2199.840679460312</v>
+        <v>1967.526114878148</v>
       </c>
       <c r="P6" t="n">
-        <v>2447.023413292609</v>
+        <v>2214.708848710445</v>
       </c>
       <c r="Q6" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4679,7 +4679,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4688,7 +4688,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4701,49 +4701,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>467.223769593414</v>
+        <v>716.5983551657491</v>
       </c>
       <c r="C7" t="n">
-        <v>369.3498906720603</v>
+        <v>547.6621722378422</v>
       </c>
       <c r="D7" t="n">
-        <v>219.2332512597245</v>
+        <v>397.5455328255065</v>
       </c>
       <c r="E7" t="n">
-        <v>219.2332512597245</v>
+        <v>249.6324392431134</v>
       </c>
       <c r="F7" t="n">
-        <v>219.2332512597245</v>
+        <v>102.742491745203</v>
       </c>
       <c r="G7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
@@ -4755,22 +4755,22 @@
         <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1413.467639269233</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>1124.349301773071</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V7" t="n">
-        <v>869.6648135671838</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W7" t="n">
-        <v>869.6648135671838</v>
+        <v>1347.028950037536</v>
       </c>
       <c r="X7" t="n">
-        <v>869.6648135671838</v>
+        <v>1119.039399139519</v>
       </c>
       <c r="Y7" t="n">
-        <v>648.8722344236537</v>
+        <v>898.2468199959889</v>
       </c>
     </row>
     <row r="8">
@@ -4780,40 +4780,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1617.332751740275</v>
+        <v>1445.965582893149</v>
       </c>
       <c r="C8" t="n">
-        <v>1248.370234799863</v>
+        <v>1445.965582893149</v>
       </c>
       <c r="D8" t="n">
-        <v>1248.370234799863</v>
+        <v>1087.699884286399</v>
       </c>
       <c r="E8" t="n">
-        <v>1248.370234799863</v>
+        <v>701.9116316881543</v>
       </c>
       <c r="F8" t="n">
-        <v>837.3843300102556</v>
+        <v>290.9257268985468</v>
       </c>
       <c r="G8" t="n">
-        <v>421.6795797345444</v>
+        <v>279.2613806632397</v>
       </c>
       <c r="H8" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N8" t="n">
         <v>1656.671415230817</v>
@@ -4831,25 +4831,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2228.894479532451</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U8" t="n">
-        <v>2228.894479532451</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V8" t="n">
-        <v>1897.83159218888</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="W8" t="n">
-        <v>1617.332751740275</v>
+        <v>2209.570673130041</v>
       </c>
       <c r="X8" t="n">
-        <v>1617.332751740275</v>
+        <v>1836.104914868961</v>
       </c>
       <c r="Y8" t="n">
-        <v>1617.332751740275</v>
+        <v>1445.965582893149</v>
       </c>
     </row>
     <row r="9">
@@ -4859,49 +4859,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F9" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182524</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057898</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>575.6256845144203</v>
+        <v>614.5430248380223</v>
       </c>
       <c r="L9" t="n">
-        <v>870.329241545892</v>
+        <v>909.2465818694941</v>
       </c>
       <c r="M9" t="n">
-        <v>1233.591260505112</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N9" t="n">
-        <v>1867.770244284151</v>
+        <v>1659.793729425659</v>
       </c>
       <c r="O9" t="n">
-        <v>2199.840679460312</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P9" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4916,16 +4916,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4938,40 +4938,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>238.9353861545981</v>
+        <v>716.5983551657496</v>
       </c>
       <c r="C10" t="n">
-        <v>199.9856847044969</v>
+        <v>547.6621722378427</v>
       </c>
       <c r="D10" t="n">
-        <v>199.9856847044969</v>
+        <v>397.5455328255069</v>
       </c>
       <c r="E10" t="n">
-        <v>199.9856847044969</v>
+        <v>249.6324392431138</v>
       </c>
       <c r="F10" t="n">
-        <v>199.9856847044969</v>
+        <v>102.7424917452035</v>
       </c>
       <c r="G10" t="n">
-        <v>199.9856847044969</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
         <v>76.71595955312199</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
@@ -4992,22 +4992,22 @@
         <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1413.467639269233</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>1413.467639269233</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V10" t="n">
-        <v>1158.783151063346</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W10" t="n">
-        <v>869.3659810263853</v>
+        <v>1347.028950037537</v>
       </c>
       <c r="X10" t="n">
-        <v>641.3764301283679</v>
+        <v>1119.039399139519</v>
       </c>
       <c r="Y10" t="n">
-        <v>420.5838509848378</v>
+        <v>898.2468199959893</v>
       </c>
     </row>
     <row r="11">
@@ -5035,46 +5035,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192584</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398591</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492575</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474781</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.81249946657</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5105,40 +5105,40 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G12" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756264</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468469</v>
       </c>
       <c r="L12" t="n">
-        <v>671.2000270096656</v>
+        <v>1072.713683962605</v>
       </c>
       <c r="M12" t="n">
-        <v>1268.578514636218</v>
+        <v>1072.713683962605</v>
       </c>
       <c r="N12" t="n">
-        <v>1896.176478190824</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>2252.221377756498</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263526</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356194</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057737</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U13" t="n">
-        <v>2273.199413378161</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V13" t="n">
-        <v>2018.514925172274</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W13" t="n">
-        <v>1729.097755135313</v>
+        <v>1613.78619868161</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611461</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406466</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168588</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362663</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="15">
@@ -5351,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756264</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468469</v>
       </c>
       <c r="L15" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962605</v>
       </c>
       <c r="M15" t="n">
-        <v>680.0291294438171</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143763</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400717</v>
+        <v>513.853600740063</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121561</v>
       </c>
       <c r="D16" t="n">
-        <v>194.8007783998291</v>
+        <v>194.8007783998204</v>
       </c>
       <c r="E16" t="n">
-        <v>93.81666304797187</v>
+        <v>194.8007783998204</v>
       </c>
       <c r="F16" t="n">
-        <v>93.81666304797187</v>
+        <v>194.8007783998204</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.052681478288</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038265</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797665</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910801</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570809</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279794</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853353</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580252</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832655</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487559</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.4610805105</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854698</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648811</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.28419561185</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138329</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703028</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5588,31 +5588,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J18" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>716.6687843969308</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356195</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5700,25 +5700,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>2160.315914855604</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,28 +5825,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J21" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>352.5519571452603</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>949.9304447718124</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.528408326419</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400753</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121684</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="D22" t="n">
-        <v>194.8007783998327</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E22" t="n">
-        <v>194.8007783998327</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F22" t="n">
-        <v>194.8007783998327</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>194.8007783998327</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
         <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510512</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.38585385471</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648823</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611863</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138452</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.502065570315</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="23">
@@ -5983,46 +5983,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123003</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,34 +6062,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J24" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438171</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>869.6905094135296</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="C25" t="n">
-        <v>700.7543264856228</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="D25" t="n">
-        <v>550.637687073287</v>
+        <v>612.4311299055728</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>464.5180363231797</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>317.6280888252693</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>150.4319895401492</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>150.4319895401492</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2324.909903263008</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>2105.308438285949</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1816.233211630147</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1561.54872342426</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1272.131553387299</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>1272.131553387299</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y25" t="n">
-        <v>1051.338974243769</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="26">
@@ -6220,37 +6220,37 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
         <v>4606.285157492578</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,31 +6299,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>716.6687843969303</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951537</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D28" t="n">
-        <v>194.8007783998291</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>93.81666304797189</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>93.81666304797189</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6445,28 +6445,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6475,10 +6475,10 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6545,22 +6545,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>716.6687843969303</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951537</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>559.7594328861248</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>390.823249958218</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>240.7066105458822</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>240.7066105458822</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6621,52 +6621,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2425.823211978716</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S31" t="n">
-        <v>2242.968377633621</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T31" t="n">
-        <v>2023.366912656562</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U31" t="n">
-        <v>1734.29168600076</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>1479.607197794873</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1190.190027757912</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>962.2004768598947</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>741.4078977163646</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6691,37 +6691,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111703</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6785,22 +6785,22 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>577.3880777468471</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438171</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2757.723669558405</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="C34" t="n">
-        <v>2588.787486630498</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="D34" t="n">
-        <v>2438.670847218162</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E34" t="n">
-        <v>2337.686731866304</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F34" t="n">
-        <v>2337.686731866304</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>3932.255922673039</v>
+        <v>1730.34805652803</v>
       </c>
       <c r="V34" t="n">
-        <v>3677.571434467152</v>
+        <v>1475.663568322143</v>
       </c>
       <c r="W34" t="n">
-        <v>3388.154264430192</v>
+        <v>1186.246398285183</v>
       </c>
       <c r="X34" t="n">
-        <v>3160.164713532175</v>
+        <v>958.2568473871653</v>
       </c>
       <c r="Y34" t="n">
-        <v>2939.372134388645</v>
+        <v>737.4642682436352</v>
       </c>
     </row>
     <row r="35">
@@ -6925,22 +6925,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6949,22 +6949,22 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
         <v>4405.252601474784</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>840.8417932021785</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>874.8686257536381</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C37" t="n">
-        <v>705.9324428257312</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="D37" t="n">
-        <v>555.8158034133954</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E37" t="n">
-        <v>407.9027098310023</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2338.476105524075</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1794.716390662386</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W37" t="n">
-        <v>1505.299220625425</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X37" t="n">
-        <v>1277.309669727408</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y37" t="n">
-        <v>1056.517090583878</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="38">
@@ -7168,37 +7168,37 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
         <v>4606.285157492578</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,34 +7247,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>913.2907898186995</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>913.2907898186995</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1540.888753373306</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2092.798483612593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3342.53722908186</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>3173.601046153953</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D40" t="n">
-        <v>3023.484406741617</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E40" t="n">
-        <v>2875.571313159224</v>
+        <v>365.9405071576781</v>
       </c>
       <c r="F40" t="n">
-        <v>2728.681365661314</v>
+        <v>365.9405071576781</v>
       </c>
       <c r="G40" t="n">
-        <v>2561.485266376194</v>
+        <v>198.744407872558</v>
       </c>
       <c r="H40" t="n">
-        <v>2419.773435218392</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>4623.787448650996</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>4440.932614305901</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>4221.331149328842</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>3932.25592267304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>3677.571434467153</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>3388.154264430193</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>3342.53722908186</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>3342.53722908186</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7399,40 +7399,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C42" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D42" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G42" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>2381.235169913446</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>2715.159942084666</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>3210.485548300425</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>3807.864035926977</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>4435.461999481584</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>4435.461999481584</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>4435.461999481584</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S42" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T42" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U42" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V42" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W42" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X42" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y42" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="43">
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>560.7825789706076</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>391.8463960427007</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D43" t="n">
-        <v>241.729756630365</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E43" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7599,22 +7599,22 @@
         <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2024.390058741045</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1735.314832085242</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1480.630343879355</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1191.213173842395</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>963.2236229443774</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>742.4310438008473</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7636,25 +7636,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
         <v>2206.558663014778</v>
@@ -7730,22 +7730,22 @@
         <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>245.2306927803938</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>842.6091804069456</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1470.207143961552</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2022.116874200839</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2445.740023695907</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>705.9324428257312</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C46" t="n">
-        <v>705.9324428257312</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D46" t="n">
-        <v>555.8158034133954</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E46" t="n">
-        <v>407.9027098310023</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y46" t="n">
-        <v>705.9324428257312</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
   </sheetData>
@@ -8063,7 +8063,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>342.9044714621888</v>
+        <v>211.0329012241554</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8072,16 +8072,16 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>162.0073097921343</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8294,19 +8294,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>6.454437538929824</v>
+        <v>168.7434581780643</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>273.6534998179984</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>249.3877325071649</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -8315,10 +8315,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154988</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>154.0169020165195</v>
+        <v>193.3273467878346</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8543,7 +8543,7 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>249.387732507165</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8552,10 +8552,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23317,7 +23317,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>3.012701199622825e-12</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856556</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012171</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -23472,7 +23472,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>114.1584408891651</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>32.89260457060101</v>
       </c>
     </row>
     <row r="14">
@@ -23661,19 +23661,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>46.45968844823057</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>65.54986409393875</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856556</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23746,7 +23746,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23892,16 +23892,16 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,16 +23940,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>111.7546635373313</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23986,7 +23986,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24132,7 +24132,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>61.40075786968291</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24141,10 +24141,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>121.5862749664471</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24256,7 +24256,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -24363,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24375,16 +24375,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>25.21666309130994</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>60.19363748756457</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>46.45968844823058</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>45.44677382459246</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25077,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>46.45968844822997</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>41.54258064659103</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>34.97276993489203</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,19 +25359,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>110.0033420516639</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>36.41624546988359</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25614,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>180.5487903941874</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25791,19 +25791,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856552</v>
@@ -25839,13 +25839,13 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>46.45968844823054</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>57.22910392194183</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26022,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>114.1584408891651</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>10.32607348286555</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>958647.675925359</v>
+        <v>958647.6759253589</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>958647.6759253589</v>
+        <v>958647.675925359</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>958647.675925359</v>
+        <v>958647.6759253589</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>935537.9172236552</v>
+        <v>935537.9172236548</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>935537.9172236549</v>
+        <v>935537.9172236547</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>935537.9172236552</v>
+        <v>935537.9172236549</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>935537.9172236552</v>
+        <v>935537.917223655</v>
       </c>
     </row>
     <row r="9">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>935537.917223655</v>
+        <v>935537.9172236552</v>
       </c>
     </row>
   </sheetData>
@@ -26313,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>492625.06191857</v>
+      </c>
+      <c r="C2" t="n">
         <v>492625.0619185701</v>
-      </c>
-      <c r="C2" t="n">
-        <v>492625.06191857</v>
       </c>
       <c r="D2" t="n">
         <v>492625.06191857</v>
       </c>
       <c r="E2" t="n">
-        <v>484287.9598140036</v>
+        <v>484287.9598140035</v>
       </c>
       <c r="F2" t="n">
         <v>484287.9598140036</v>
@@ -26331,13 +26331,13 @@
         <v>484287.9598140036</v>
       </c>
       <c r="H2" t="n">
-        <v>484287.9598140038</v>
+        <v>484287.9598140034</v>
       </c>
       <c r="I2" t="n">
-        <v>484287.9598140038</v>
+        <v>484287.9598140037</v>
       </c>
       <c r="J2" t="n">
-        <v>484287.9598140036</v>
+        <v>484287.9598140037</v>
       </c>
       <c r="K2" t="n">
         <v>484287.9598140036</v>
@@ -26346,16 +26346,16 @@
         <v>484287.9598140037</v>
       </c>
       <c r="M2" t="n">
-        <v>484287.9598140038</v>
+        <v>484287.9598140036</v>
       </c>
       <c r="N2" t="n">
-        <v>484287.9598140037</v>
+        <v>484287.9598140036</v>
       </c>
       <c r="O2" t="n">
         <v>484287.9598140036</v>
       </c>
       <c r="P2" t="n">
-        <v>484287.9598140036</v>
+        <v>484287.9598140037</v>
       </c>
     </row>
     <row r="3">
@@ -26371,19 +26371,19 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245461</v>
+        <v>507485.4416245451</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>3.535601535986644e-10</v>
       </c>
       <c r="H3" t="n">
-        <v>3.482032298052218e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289268</v>
+        <v>132607.2937289265</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.540129233035259e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26420,10 +26420,10 @@
         <v>134318.0002618637</v>
       </c>
       <c r="C4" t="n">
-        <v>134318.0002618637</v>
+        <v>134318.0002618638</v>
       </c>
       <c r="D4" t="n">
-        <v>134318.0002618637</v>
+        <v>134318.0002618638</v>
       </c>
       <c r="E4" t="n">
         <v>8117.312426731974</v>
@@ -26435,31 +26435,31 @@
         <v>8117.312426731974</v>
       </c>
       <c r="H4" t="n">
-        <v>8117.312426731975</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="I4" t="n">
-        <v>8117.312426731975</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="J4" t="n">
-        <v>8117.312426731975</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="K4" t="n">
-        <v>8117.312426731975</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="L4" t="n">
         <v>8117.312426731974</v>
       </c>
       <c r="M4" t="n">
-        <v>8117.312426731975</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="N4" t="n">
-        <v>8117.312426731975</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="O4" t="n">
         <v>8117.312426731974</v>
       </c>
       <c r="P4" t="n">
-        <v>8117.312426731975</v>
+        <v>8117.312426731974</v>
       </c>
     </row>
     <row r="5">
@@ -26469,10 +26469,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
         <v>92937.7724398447</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-849382.494359058</v>
+        <v>-849382.4943590581</v>
       </c>
       <c r="C6" t="n">
-        <v>265369.2892168615</v>
+        <v>265369.2892168619</v>
       </c>
       <c r="D6" t="n">
-        <v>265369.2892168616</v>
+        <v>265369.2892168614</v>
       </c>
       <c r="E6" t="n">
-        <v>-132437.3240611816</v>
+        <v>-132784.7033155376</v>
       </c>
       <c r="F6" t="n">
-        <v>375048.1175633645</v>
+        <v>374700.7383090075</v>
       </c>
       <c r="G6" t="n">
-        <v>375048.1175633647</v>
+        <v>374700.7383090071</v>
       </c>
       <c r="H6" t="n">
-        <v>375048.1175633643</v>
+        <v>374700.7383090074</v>
       </c>
       <c r="I6" t="n">
-        <v>375048.1175633649</v>
+        <v>374700.7383090076</v>
       </c>
       <c r="J6" t="n">
-        <v>207442.9397533819</v>
+        <v>207095.5604990251</v>
       </c>
       <c r="K6" t="n">
-        <v>375048.1175633644</v>
+        <v>374700.7383090075</v>
       </c>
       <c r="L6" t="n">
-        <v>375048.1175633646</v>
+        <v>374700.7383090077</v>
       </c>
       <c r="M6" t="n">
-        <v>242440.8238344379</v>
+        <v>242093.4445800811</v>
       </c>
       <c r="N6" t="n">
-        <v>375048.1175633646</v>
+        <v>374700.7383090075</v>
       </c>
       <c r="O6" t="n">
-        <v>375048.1175633645</v>
+        <v>374700.7383090073</v>
       </c>
       <c r="P6" t="n">
-        <v>375048.1175633645</v>
+        <v>374700.7383090076</v>
       </c>
     </row>
   </sheetData>
@@ -26737,19 +26737,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
+        <v>934.0648921175391</v>
+      </c>
+      <c r="D3" t="n">
         <v>934.0648921175393</v>
       </c>
-      <c r="D3" t="n">
-        <v>934.0648921175392</v>
-      </c>
       <c r="E3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="F3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="G3" t="n">
         <v>1367.975500341674</v>
@@ -26789,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26807,13 +26807,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26822,10 +26822,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26959,25 +26959,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241348</v>
+        <v>433.910608224134</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="H3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26998,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996097</v>
+        <v>532.123455999609</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.12345599961</v>
+        <v>532.123455999609</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996097</v>
+        <v>532.123455999609</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27387,16 +27387,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>113.7030076950069</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>92.51216355833979</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27539,7 +27539,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27557,7 +27557,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27590,19 +27590,19 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>121.3356733023141</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>118.0115968576621</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27621,7 +27621,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27630,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247047</v>
+        <v>17.71203470613666</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27675,7 +27675,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>298.3376329753876</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27776,22 +27776,22 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>70.35168096648766</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>115.3258519193763</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27827,19 +27827,19 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27855,22 +27855,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>140.9940170805916</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>71.54711667329406</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28013,22 +28013,22 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>128.6866166630276</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>115.3258519193758</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28064,13 +28064,13 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28344,7 +28344,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2.330580173293129e-12</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28508,7 +28508,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>-5.446652551924493e-12</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -28851,7 +28851,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>-2.495430374854276e-13</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -29012,7 +29012,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>3.110756097157719e-12</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -31041,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
         <v>38.45624955336179</v>
@@ -31056,16 +31056,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
         <v>539.9786897190645</v>
@@ -31077,7 +31077,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
         <v>16.4376645838976</v>
@@ -31126,7 +31126,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31138,16 +31138,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
         <v>256.4624964168761</v>
@@ -31205,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31232,7 +31232,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
@@ -31241,7 +31241,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31360,10 +31360,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31372,34 +31372,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31442,7 +31442,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31457,10 +31457,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31469,16 +31469,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
         <v>38.45624955336179</v>
@@ -31530,16 +31530,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N8" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
         <v>539.9786897190645</v>
@@ -31551,7 +31551,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
         <v>16.4376645838976</v>
@@ -31600,7 +31600,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31612,16 +31612,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
         <v>256.4624964168761</v>
@@ -31679,7 +31679,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31706,7 +31706,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S10" t="n">
         <v>29.35413767523479</v>
@@ -31715,7 +31715,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817573</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162558</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175671</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159422</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460025</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236505</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.873223366922</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078744</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422584</v>
       </c>
       <c r="L12" t="n">
-        <v>570.6116741576914</v>
+        <v>638.883274947307</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071782</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437241</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>437.8531046913773</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,46 +31913,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869272</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106787</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817573</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162558</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175671</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159422</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460025</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236505</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.873223366922</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078744</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422584</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.883274947307</v>
       </c>
       <c r="M15" t="n">
-        <v>583.1096135868572</v>
+        <v>745.5466476862118</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071782</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565776</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,46 +32150,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869272</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106787</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32317,25 +32317,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>616.5397119226058</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32554,22 +32554,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>248.7449369209183</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437245</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32791,37 +32791,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>583.1096135868572</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33028,37 +33028,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>620.1193660647493</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33265,37 +33265,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>620.1193660647493</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33420,34 +33420,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33502,37 +33502,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>245.8118639189577</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33739,37 +33739,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>602.8420149078237</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>477.8500485393211</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34149,7 +34149,7 @@
         <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236497</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
         <v>593.8732233669224</v>
@@ -34207,7 +34207,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34225,16 +34225,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>360.9226811202607</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742439</v>
@@ -34371,7 +34371,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817562</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
         <v>867.8464071162563</v>
@@ -34450,10 +34450,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862122</v>
@@ -34462,13 +34462,13 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>248.3870916262918</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34701,19 +34701,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
         <v>308.745693963795</v>
@@ -34722,7 +34722,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091742</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>640.584832100039</v>
+        <v>508.7132618620056</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>497.4319917882573</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235323</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q3" t="n">
         <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977092</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,13 +34856,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
@@ -34871,13 +34871,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K6" t="n">
-        <v>193.0419337824147</v>
+        <v>355.3309544215491</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>640.5848321000389</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
-        <v>640.5848321000389</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35175,19 +35175,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N8" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
         <v>308.745693963795</v>
@@ -35196,7 +35196,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>340.6043982600042</v>
+        <v>379.9148430313194</v>
       </c>
       <c r="L9" t="n">
         <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N9" t="n">
-        <v>640.5848321000389</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
         <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,13 +35330,13 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K10" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
@@ -35345,13 +35345,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317199</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396418</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367768</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902944</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193513</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243157</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924725</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902403</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678994</v>
       </c>
       <c r="L12" t="n">
-        <v>432.0572943778172</v>
+        <v>500.3288951674328</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238449</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.4845759992796</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>303.8786972770471</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.0464832629533</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317199</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396418</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367768</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902944</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193513</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243157</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924725</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902403</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678994</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.3288951674328</v>
       </c>
       <c r="M15" t="n">
-        <v>440.9755796648388</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238449</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121332</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326294557</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35901,7 +35901,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683806</v>
       </c>
       <c r="Q17" t="n">
         <v>371.5675334924728</v>
@@ -35965,25 +35965,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>477.9853321427316</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,25 +36199,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>110.1905571410441</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992801</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,28 +36439,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>440.9755796648388</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,25 +36676,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>477.985332142731</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,25 +36913,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>477.985332142731</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37153,25 +37153,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>103.6778299969394</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,28 +37387,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>471.5003028244903</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,25 +37627,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>339.2956687594469</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37797,7 +37797,7 @@
         <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683802</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
         <v>371.5675334924729</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37873,16 +37873,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>220.9409070342392</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38019,7 +38019,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367756</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
         <v>632.079992146269</v>
@@ -38098,10 +38098,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38110,13 +38110,13 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>108.4053175402703</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_12_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_12_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1328111.078669755</v>
+        <v>1329871.60897254</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283204</v>
+        <v>416855.1052283197</v>
       </c>
     </row>
     <row r="9">
@@ -664,22 +664,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>297.8446950779471</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,10 +712,10 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>71.79199525301578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -724,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -825,7 +825,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -834,7 +834,7 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -867,25 +867,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>144.7691584824239</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>107.6980585313751</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>47.99787796633384</v>
+        <v>15.86456864293806</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.045250128462</v>
@@ -958,10 +958,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1059,7 +1059,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1068,7 +1068,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>50.98074812542791</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>33.28962109883609</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54770277295399</v>
+        <v>224.7543248662178</v>
       </c>
       <c r="H8" t="n">
-        <v>160.0245354818138</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1195,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1305,7 +1305,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>50.98074812542836</v>
+        <v>50.98074812542834</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634776</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1429,7 +1429,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701319</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1530,7 +1530,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>41.74133133758626</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1542,10 +1542,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1578,10 +1578,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>185.6920487814938</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444115</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695534</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T15" t="n">
         <v>188.3046392154443</v>
@@ -1770,7 +1770,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1779,10 +1779,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>99.97427419833009</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012171</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -2004,16 +2004,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>11.79076481679217</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2140,7 +2140,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2241,25 +2241,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>87.21471514852945</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>22.65115569188744</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -2487,16 +2487,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>19.91555826189057</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>56.04917322725559</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2563,7 +2563,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2718,16 +2718,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>66.2562870115476</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2955,13 +2955,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>45.17596778975034</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3189,25 +3189,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3243,7 +3243,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>244.6418937426531</v>
+        <v>147.6895341487369</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3429,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>113.6427030833203</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3480,16 +3480,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>238.747556988554</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3663,13 +3663,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>80.08971311158757</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3678,10 +3678,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>103.8784673763403</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3903,7 +3903,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>80.08971311158757</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3918,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3957,7 +3957,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>194.9085394018862</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4143,19 +4143,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>61.66004604094908</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4188,10 +4188,10 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>172.026033500079</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1215.247820471428</v>
+        <v>1588.383781964454</v>
       </c>
       <c r="C2" t="n">
-        <v>1215.247820471428</v>
+        <v>1588.383781964454</v>
       </c>
       <c r="D2" t="n">
-        <v>1215.247820471428</v>
+        <v>1230.118083357703</v>
       </c>
       <c r="E2" t="n">
-        <v>829.4595678731839</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F2" t="n">
-        <v>418.4736630835764</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G2" t="n">
-        <v>117.6204357321147</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
         <v>117.6204357321147</v>
@@ -4330,13 +4330,13 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4357,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.89447953245</v>
+        <v>2365.122954004387</v>
       </c>
       <c r="U2" t="n">
-        <v>1975.31341879663</v>
+        <v>2365.122954004387</v>
       </c>
       <c r="V2" t="n">
-        <v>1975.31341879663</v>
+        <v>2365.122954004387</v>
       </c>
       <c r="W2" t="n">
-        <v>1975.31341879663</v>
+        <v>2365.122954004387</v>
       </c>
       <c r="X2" t="n">
-        <v>1601.84766053555</v>
+        <v>2365.122954004387</v>
       </c>
       <c r="Y2" t="n">
-        <v>1601.84766053555</v>
+        <v>1974.983622028575</v>
       </c>
     </row>
     <row r="3">
@@ -4385,46 +4385,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182518</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310614</v>
+        <v>423.148951518066</v>
       </c>
       <c r="L3" t="n">
-        <v>801.944955774447</v>
+        <v>717.8525085495377</v>
       </c>
       <c r="M3" t="n">
-        <v>1165.206974733667</v>
+        <v>1081.114527508758</v>
       </c>
       <c r="N3" t="n">
-        <v>1552.492103330612</v>
+        <v>1715.293511287796</v>
       </c>
       <c r="O3" t="n">
-        <v>1884.562538506774</v>
+        <v>2047.363946463958</v>
       </c>
       <c r="P3" t="n">
         <v>2447.023413292609</v>
@@ -4442,16 +4442,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>833.9149192343713</v>
+        <v>833.0891146802707</v>
       </c>
       <c r="C4" t="n">
-        <v>664.9787363064644</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="D4" t="n">
-        <v>514.8620968941286</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E4" t="n">
-        <v>514.8620968941286</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F4" t="n">
-        <v>367.9721493962183</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G4" t="n">
-        <v>199.9856847044969</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H4" t="n">
         <v>51.2467865680031</v>
@@ -4488,25 +4488,25 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
@@ -4515,25 +4515,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074497</v>
+        <v>1490.214646859927</v>
       </c>
       <c r="T4" t="n">
-        <v>1413.467639269233</v>
+        <v>1490.214646859927</v>
       </c>
       <c r="U4" t="n">
-        <v>1124.349301773071</v>
+        <v>1490.214646859927</v>
       </c>
       <c r="V4" t="n">
-        <v>1124.349301773071</v>
+        <v>1235.53015865404</v>
       </c>
       <c r="W4" t="n">
-        <v>1124.349301773071</v>
+        <v>1235.53015865404</v>
       </c>
       <c r="X4" t="n">
-        <v>1015.563384064611</v>
+        <v>1235.53015865404</v>
       </c>
       <c r="Y4" t="n">
-        <v>1015.563384064611</v>
+        <v>1014.73757951051</v>
       </c>
     </row>
     <row r="5">
@@ -4543,49 +4543,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>880.645441216167</v>
+        <v>848.1875530107168</v>
       </c>
       <c r="C5" t="n">
-        <v>880.645441216167</v>
+        <v>848.1875530107168</v>
       </c>
       <c r="D5" t="n">
-        <v>522.3797426094166</v>
+        <v>489.9218544039663</v>
       </c>
       <c r="E5" t="n">
-        <v>522.3797426094166</v>
+        <v>489.9218544039663</v>
       </c>
       <c r="F5" t="n">
-        <v>111.393837819809</v>
+        <v>78.93594961435872</v>
       </c>
       <c r="G5" t="n">
-        <v>99.72949158450193</v>
+        <v>67.27160337905165</v>
       </c>
       <c r="H5" t="n">
-        <v>99.72949158450193</v>
+        <v>67.27160337905165</v>
       </c>
       <c r="I5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362826</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816093</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872929</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923563</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q5" t="n">
         <v>2542.25058172385</v>
@@ -4594,25 +4594,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T5" t="n">
-        <v>2228.89447953245</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U5" t="n">
-        <v>1975.313418796629</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="V5" t="n">
-        <v>1644.250531453059</v>
+        <v>1977.695380320764</v>
       </c>
       <c r="W5" t="n">
-        <v>1644.250531453059</v>
+        <v>1624.92672505065</v>
       </c>
       <c r="X5" t="n">
-        <v>1270.784773191979</v>
+        <v>1624.92672505065</v>
       </c>
       <c r="Y5" t="n">
-        <v>880.645441216167</v>
+        <v>1234.787393074839</v>
       </c>
     </row>
     <row r="6">
@@ -4640,28 +4640,28 @@
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I6" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>590.2049751143496</v>
+        <v>423.148951518066</v>
       </c>
       <c r="L6" t="n">
-        <v>884.9085321458213</v>
+        <v>717.8525085495377</v>
       </c>
       <c r="M6" t="n">
-        <v>1248.170551105041</v>
+        <v>1081.114527508758</v>
       </c>
       <c r="N6" t="n">
-        <v>1635.455679701987</v>
+        <v>1468.399656105703</v>
       </c>
       <c r="O6" t="n">
-        <v>1967.526114878148</v>
+        <v>1800.470091281865</v>
       </c>
       <c r="P6" t="n">
         <v>2214.708848710445</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>716.5983551657491</v>
+        <v>682.9724752679349</v>
       </c>
       <c r="C7" t="n">
-        <v>547.6621722378422</v>
+        <v>514.036292340028</v>
       </c>
       <c r="D7" t="n">
-        <v>397.5455328255065</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E7" t="n">
-        <v>249.6324392431134</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F7" t="n">
-        <v>102.742491745203</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020475</v>
@@ -4761,16 +4761,16 @@
         <v>1636.446120074497</v>
       </c>
       <c r="V7" t="n">
-        <v>1636.446120074497</v>
+        <v>1602.820240176683</v>
       </c>
       <c r="W7" t="n">
-        <v>1347.028950037536</v>
+        <v>1313.403070139722</v>
       </c>
       <c r="X7" t="n">
-        <v>1119.039399139519</v>
+        <v>1085.413519241705</v>
       </c>
       <c r="Y7" t="n">
-        <v>898.2468199959889</v>
+        <v>864.6209400981746</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1445.965582893149</v>
+        <v>1802.273730074954</v>
       </c>
       <c r="C8" t="n">
-        <v>1445.965582893149</v>
+        <v>1433.311213134543</v>
       </c>
       <c r="D8" t="n">
-        <v>1087.699884286399</v>
+        <v>1075.045514527792</v>
       </c>
       <c r="E8" t="n">
-        <v>701.9116316881543</v>
+        <v>689.2572619295479</v>
       </c>
       <c r="F8" t="n">
-        <v>290.9257268985468</v>
+        <v>278.2713571399403</v>
       </c>
       <c r="G8" t="n">
-        <v>279.2613806632397</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J8" t="n">
         <v>187.5281822362819</v>
@@ -4810,46 +4810,46 @@
         <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087291</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O8" t="n">
         <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="V8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="W8" t="n">
-        <v>2209.570673130041</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="X8" t="n">
-        <v>1836.104914868961</v>
+        <v>2188.873570139076</v>
       </c>
       <c r="Y8" t="n">
-        <v>1445.965582893149</v>
+        <v>2188.873570139076</v>
       </c>
     </row>
     <row r="9">
@@ -4877,31 +4877,31 @@
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057898</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
-        <v>614.5430248380223</v>
+        <v>507.2413987429752</v>
       </c>
       <c r="L9" t="n">
-        <v>909.2465818694941</v>
+        <v>801.944955774447</v>
       </c>
       <c r="M9" t="n">
-        <v>1272.508600828714</v>
+        <v>1165.206974733667</v>
       </c>
       <c r="N9" t="n">
-        <v>1659.793729425659</v>
+        <v>1552.492103330612</v>
       </c>
       <c r="O9" t="n">
-        <v>1991.864164601821</v>
+        <v>1884.562538506774</v>
       </c>
       <c r="P9" t="n">
-        <v>2239.046898434118</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4953,16 +4953,16 @@
         <v>102.7424917452035</v>
       </c>
       <c r="G10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312199</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020476</v>
@@ -5038,22 +5038,22 @@
         <v>93.81666304797182</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192584</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
         <v>3640.422291068008</v>
@@ -5077,16 +5077,16 @@
         <v>4151.81249946657</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852885</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615994</v>
       </c>
     </row>
     <row r="12">
@@ -5123,22 +5123,22 @@
         <v>243.4633055756264</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468469</v>
+        <v>243.4633055756264</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962605</v>
+        <v>243.4633055756264</v>
       </c>
       <c r="M12" t="n">
-        <v>1072.713683962605</v>
+        <v>716.6687843969314</v>
       </c>
       <c r="N12" t="n">
-        <v>1700.311647517212</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O12" t="n">
-        <v>2252.221377756498</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1016.58045691144</v>
+        <v>580.8993044876679</v>
       </c>
       <c r="C13" t="n">
-        <v>847.644273983533</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D13" t="n">
-        <v>697.5276345711973</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888042</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057737</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797182</v>
@@ -5226,25 +5226,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235164</v>
       </c>
       <c r="T13" t="n">
-        <v>2446.96308358026</v>
+        <v>2044.506784258105</v>
       </c>
       <c r="U13" t="n">
-        <v>2157.887856924458</v>
+        <v>1755.431557602303</v>
       </c>
       <c r="V13" t="n">
-        <v>1903.203368718571</v>
+        <v>1500.747069396416</v>
       </c>
       <c r="W13" t="n">
-        <v>1613.78619868161</v>
+        <v>1211.329899359455</v>
       </c>
       <c r="X13" t="n">
-        <v>1385.796647783593</v>
+        <v>983.3403484614378</v>
       </c>
       <c r="Y13" t="n">
-        <v>1198.22892174168</v>
+        <v>762.5477693179076</v>
       </c>
     </row>
     <row r="14">
@@ -5254,31 +5254,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611461</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004711</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406466</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168588</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362663</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
@@ -5287,43 +5287,43 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5351,25 +5351,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756264</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468469</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962605</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589157</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143763</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.853600740063</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121561</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>194.8007783998204</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>194.8007783998204</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>194.8007783998204</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797183</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>174.052681478288</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038265</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797665</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910801</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570809</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279794</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853353</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580252</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832655</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487559</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.4610805105</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854698</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648811</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.28419561185</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138329</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703028</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5512,22 +5512,22 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
         <v>3640.422291068009</v>
@@ -5649,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908938</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908938</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908938</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F19" t="n">
         <v>402.7245934908938</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1430.931364336515</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="20">
@@ -5728,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5767,37 +5767,37 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5825,25 +5825,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>741.8431516380886</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C22" t="n">
-        <v>572.9069687101817</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429802</v>
+        <v>430.7826650753331</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429802</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>1144.284195611858</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y22" t="n">
-        <v>923.4916164683283</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="23">
@@ -5983,19 +5983,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014778</v>
@@ -6007,10 +6007,10 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6062,10 +6062,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
         <v>243.4633055756266</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>762.5477693179085</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C25" t="n">
-        <v>762.5477693179085</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D25" t="n">
-        <v>612.4311299055728</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E25" t="n">
-        <v>464.5180363231797</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="F25" t="n">
-        <v>317.6280888252693</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>150.4319895401492</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>150.4319895401492</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6208,7 +6208,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
         <v>1204.759558406469</v>
@@ -6223,22 +6223,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6262,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>916.3099000622266</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>747.3737171343197</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>597.2570777219839</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>449.3439841395908</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>302.4540366416804</v>
       </c>
       <c r="G28" t="n">
         <v>235.5284942057738</v>
@@ -6384,52 +6384,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2254.869721166297</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T28" t="n">
-        <v>2035.268256189238</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>2090.842153176861</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1836.157664970974</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1546.740494934014</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>1318.750944035996</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>1097.958364892466</v>
       </c>
     </row>
     <row r="29">
@@ -6454,40 +6454,40 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
         <v>4606.285157492578</v>
@@ -6499,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,10 +6536,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J30" t="n">
         <v>243.4633055756266</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2254.869721166297</v>
+        <v>2334.285089135946</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>2334.285089135946</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>2045.209862480144</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1790.525374274257</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="32">
@@ -6694,16 +6694,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6712,37 +6712,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,10 +6773,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J33" t="n">
         <v>243.4633055756266</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>555.8158034133954</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C34" t="n">
-        <v>555.8158034133954</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D34" t="n">
-        <v>555.8158034133954</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E34" t="n">
-        <v>407.9027098310023</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1730.34805652803</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V34" t="n">
-        <v>1475.663568322143</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W34" t="n">
-        <v>1186.246398285183</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X34" t="n">
-        <v>958.2568473871653</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y34" t="n">
-        <v>737.4642682436352</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="35">
@@ -6925,22 +6925,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6949,37 +6949,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,10 +7010,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J36" t="n">
         <v>243.4633055756266</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>768.5380889459582</v>
+        <v>789.7592298206043</v>
       </c>
       <c r="C37" t="n">
-        <v>599.6019060180513</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429803</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429803</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H37" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1736.301932037222</v>
       </c>
       <c r="V37" t="n">
-        <v>1688.385853854706</v>
+        <v>1481.617443831335</v>
       </c>
       <c r="W37" t="n">
-        <v>1398.968683817745</v>
+        <v>1192.200273794374</v>
       </c>
       <c r="X37" t="n">
-        <v>1170.979132919728</v>
+        <v>1192.200273794374</v>
       </c>
       <c r="Y37" t="n">
-        <v>950.1865537761979</v>
+        <v>971.4076946508441</v>
       </c>
     </row>
     <row r="38">
@@ -7171,31 +7171,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7250,13 +7250,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>734.6461798836018</v>
       </c>
       <c r="C40" t="n">
-        <v>513.8536007400712</v>
+        <v>565.7099969556949</v>
       </c>
       <c r="D40" t="n">
-        <v>513.8536007400712</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E40" t="n">
-        <v>365.9405071576781</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F40" t="n">
-        <v>365.9405071576781</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G40" t="n">
-        <v>198.744407872558</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>916.2946447138415</v>
       </c>
     </row>
     <row r="41">
@@ -7417,22 +7417,22 @@
         <v>852.8523611075798</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>734.6461798836018</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908938</v>
+        <v>565.7099969556949</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7605,16 +7605,16 @@
         <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>916.2946447138415</v>
       </c>
     </row>
     <row r="44">
@@ -7639,31 +7639,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7724,13 +7724,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1098.667160263526</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C46" t="n">
-        <v>929.7309773356194</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D46" t="n">
-        <v>779.6143379232836</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408905</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429802</v>
+        <v>297.8113689946113</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T46" t="n">
-        <v>2446.963083580261</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U46" t="n">
-        <v>2273.199413378161</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V46" t="n">
-        <v>2018.514925172274</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W46" t="n">
-        <v>1729.097755135313</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X46" t="n">
-        <v>1501.108204237296</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y46" t="n">
-        <v>1280.315625093766</v>
+        <v>945.402603663004</v>
       </c>
     </row>
   </sheetData>
@@ -8057,31 +8057,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>211.0329012241554</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>249.3877325071649</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>154.0169020165195</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154988</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8297,22 +8297,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
         <v>168.7434581780643</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>193.3273467878346</v>
+        <v>211.0329012241554</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8549,10 +8549,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>20.93778120154988</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>3.012701199622825e-12</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23317,7 +23317,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>3.012701199622825e-12</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23418,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>125.5054897610416</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23430,10 +23430,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856556</v>
@@ -23466,10 +23466,10 @@
         <v>66.37524671012171</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>32.89260457060101</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23512,7 +23512,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23658,7 +23658,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23667,13 +23667,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>65.54986409393875</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856556</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23892,16 +23892,16 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>213.918890572245</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23986,7 +23986,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24129,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>61.40075786968291</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>123.7828069546817</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24256,7 +24256,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -24363,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24375,16 +24375,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>125.5054897610407</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>25.21666309130994</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>99.26785128072125</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24843,13 +24843,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>135.8503182118943</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25077,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>41.54258064659103</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25317,19 +25317,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>34.97276993489203</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25368,16 +25368,16 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>47.43691740069013</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25551,13 +25551,13 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>68.52575990662478</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>36.41624546988359</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>68.52575990662478</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25845,7 +25845,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>57.22910392194183</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26031,19 +26031,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>103.8640922513198</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>114.1584408891651</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>958647.6759253589</v>
+        <v>958647.675925359</v>
       </c>
     </row>
     <row r="3">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>935537.9172236548</v>
+        <v>935537.9172236547</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>935537.9172236547</v>
+        <v>935537.9172236549</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>935537.9172236549</v>
+        <v>935537.917223655</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>935537.917223655</v>
+        <v>935537.9172236549</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>935537.9172236549</v>
+        <v>935537.9172236552</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>935537.9172236549</v>
+        <v>935537.917223655</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>935537.9172236549</v>
+        <v>935537.917223655</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>935537.917223655</v>
+        <v>935537.9172236549</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>935537.9172236549</v>
+        <v>935537.917223655</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>935537.9172236552</v>
+        <v>935537.917223655</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>492625.06191857</v>
+        <v>492625.0619185701</v>
       </c>
       <c r="C2" t="n">
         <v>492625.0619185701</v>
       </c>
       <c r="D2" t="n">
-        <v>492625.06191857</v>
+        <v>492625.0619185701</v>
       </c>
       <c r="E2" t="n">
         <v>484287.9598140035</v>
       </c>
       <c r="F2" t="n">
-        <v>484287.9598140036</v>
+        <v>484287.9598140035</v>
       </c>
       <c r="G2" t="n">
         <v>484287.9598140036</v>
       </c>
       <c r="H2" t="n">
-        <v>484287.9598140034</v>
+        <v>484287.9598140036</v>
       </c>
       <c r="I2" t="n">
-        <v>484287.9598140037</v>
+        <v>484287.9598140036</v>
       </c>
       <c r="J2" t="n">
-        <v>484287.9598140037</v>
+        <v>484287.9598140036</v>
       </c>
       <c r="K2" t="n">
+        <v>484287.9598140038</v>
+      </c>
+      <c r="L2" t="n">
         <v>484287.9598140036</v>
-      </c>
-      <c r="L2" t="n">
-        <v>484287.9598140037</v>
       </c>
       <c r="M2" t="n">
         <v>484287.9598140036</v>
       </c>
       <c r="N2" t="n">
-        <v>484287.9598140036</v>
+        <v>484287.9598140035</v>
       </c>
       <c r="O2" t="n">
         <v>484287.9598140036</v>
       </c>
       <c r="P2" t="n">
-        <v>484287.9598140037</v>
+        <v>484287.9598140036</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.78357592</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26377,10 +26377,10 @@
         <v>507485.4416245451</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>4.897497092315462e-10</v>
       </c>
       <c r="G3" t="n">
-        <v>3.535601535986644e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>167605.1778099827</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26404,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.540129233035259e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>134318.0002618637</v>
+        <v>134318.0002618638</v>
       </c>
       <c r="C4" t="n">
         <v>134318.0002618638</v>
       </c>
       <c r="D4" t="n">
-        <v>134318.0002618638</v>
+        <v>134318.0002618637</v>
       </c>
       <c r="E4" t="n">
         <v>8117.312426731974</v>
@@ -26475,7 +26475,7 @@
         <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-849382.4943590581</v>
+        <v>-849382.4943590576</v>
       </c>
       <c r="C6" t="n">
-        <v>265369.2892168619</v>
+        <v>265369.2892168617</v>
       </c>
       <c r="D6" t="n">
-        <v>265369.2892168614</v>
+        <v>265369.2892168615</v>
       </c>
       <c r="E6" t="n">
-        <v>-132784.7033155376</v>
+        <v>-132472.0619866163</v>
       </c>
       <c r="F6" t="n">
-        <v>374700.7383090075</v>
+        <v>375013.3796379283</v>
       </c>
       <c r="G6" t="n">
-        <v>374700.7383090071</v>
+        <v>375013.3796379287</v>
       </c>
       <c r="H6" t="n">
-        <v>374700.7383090074</v>
+        <v>375013.3796379287</v>
       </c>
       <c r="I6" t="n">
-        <v>374700.7383090076</v>
+        <v>375013.3796379287</v>
       </c>
       <c r="J6" t="n">
-        <v>207095.5604990251</v>
+        <v>207408.2018279461</v>
       </c>
       <c r="K6" t="n">
-        <v>374700.7383090075</v>
+        <v>375013.379637929</v>
       </c>
       <c r="L6" t="n">
-        <v>374700.7383090077</v>
+        <v>375013.3796379288</v>
       </c>
       <c r="M6" t="n">
-        <v>242093.4445800811</v>
+        <v>242406.0859090023</v>
       </c>
       <c r="N6" t="n">
-        <v>374700.7383090075</v>
+        <v>375013.3796379287</v>
       </c>
       <c r="O6" t="n">
-        <v>374700.7383090073</v>
+        <v>375013.3796379288</v>
       </c>
       <c r="P6" t="n">
-        <v>374700.7383090076</v>
+        <v>375013.379637929</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>934.0648921175391</v>
@@ -26749,7 +26749,7 @@
         <v>1367.975500341673</v>
       </c>
       <c r="F3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="G3" t="n">
         <v>1367.975500341674</v>
@@ -26792,10 +26792,10 @@
         <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.584832100039</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26816,13 +26816,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26971,10 +26971,10 @@
         <v>433.910608224134</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="G3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26983,7 +26983,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26998,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27020,10 +27020,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.123455999609</v>
+        <v>532.1234559996087</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.123455999609</v>
+        <v>532.1234559996087</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,10 +27266,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.123455999609</v>
+        <v>532.1234559996087</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27384,19 +27384,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>113.7030076950069</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27432,10 +27432,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>134.866189727218</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27444,10 +27444,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27545,7 +27545,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27554,7 +27554,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -27587,25 +27587,25 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>49.89330187931355</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>118.0115968576621</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27636,7 +27636,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>17.71203470613666</v>
+        <v>49.84534402953243</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,10 +27666,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27678,10 +27678,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27779,7 +27779,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27788,7 +27788,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>115.3258519193763</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>147.2515091551289</v>
@@ -27833,7 +27833,7 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>218.8480222249919</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27852,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>186.7933779067362</v>
       </c>
       <c r="H8" t="n">
-        <v>140.9940170805916</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27915,13 +27915,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28025,7 +28025,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>115.3258519193758</v>
+        <v>115.3258519193759</v>
       </c>
       <c r="H10" t="n">
         <v>147.2515091551288</v>
@@ -28344,7 +28344,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>2.330580173293129e-12</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28508,7 +28508,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>-5.446652551924493e-12</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -31041,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31123,10 +31123,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31135,34 +31135,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31205,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31220,10 +31220,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31232,16 +31232,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31843,13 +31843,13 @@
         <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422584</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.883274947307</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>620.1193660647507</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071782</v>
@@ -31858,10 +31858,10 @@
         <v>700.0808204437241</v>
       </c>
       <c r="P12" t="n">
-        <v>437.8531046913773</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485289</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162558</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,31 +32068,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659448</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521099</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422584</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.883274947307</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862118</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071782</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>400.5469039565776</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,10 +32104,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32153,28 +32153,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32183,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32551,7 +32551,7 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
@@ -32566,7 +32566,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>400.5469039565762</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33028,16 +33028,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
         <v>400.5469039565762</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33265,16 +33265,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
         <v>400.5469039565762</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33420,34 +33420,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33502,16 +33502,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
         <v>400.5469039565762</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33739,16 +33739,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
         <v>400.5469039565762</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,16 +33976,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
         <v>398.7616643558013</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,16 +34450,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
         <v>398.7616643558013</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K3" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>508.7132618620056</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
-        <v>391.197099592874</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="O3" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>568.1422977634695</v>
+        <v>403.6964311400517</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35017,7 +35017,7 @@
         <v>189.0712562313262</v>
       </c>
       <c r="K6" t="n">
-        <v>355.3309544215491</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
         <v>297.6803606378501</v>
@@ -35032,7 +35032,7 @@
         <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235322</v>
+        <v>418.4229873015965</v>
       </c>
       <c r="Q6" t="n">
         <v>326.5580100667036</v>
@@ -35251,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K9" t="n">
-        <v>379.9148430313194</v>
+        <v>397.6203974676403</v>
       </c>
       <c r="L9" t="n">
         <v>297.6803606378502</v>
@@ -35269,10 +35269,10 @@
         <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235323</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35491,13 +35491,13 @@
         <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678994</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674328</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>477.9853321427323</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238449</v>
@@ -35506,10 +35506,10 @@
         <v>557.4845759992796</v>
       </c>
       <c r="P12" t="n">
-        <v>303.8786972770471</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625074</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317199</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396418</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367768</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462685</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902944</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193513</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243157</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924725</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,22 +35725,22 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678994</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674328</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238449</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>257.9506595121332</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326294557</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096348</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35901,7 +35901,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683806</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
         <v>371.5675334924728</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
@@ -36214,7 +36214,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>257.9506595121318</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36679,13 +36679,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
         <v>257.9506595121318</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36916,13 +36916,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
         <v>257.9506595121318</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37153,13 +37153,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
         <v>257.9506595121318</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367776</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37390,13 +37390,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
         <v>257.9506595121318</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,13 +37627,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
         <v>256.1654199113569</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,13 +38101,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
         <v>256.1654199113569</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
